--- a/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>114015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98231</v>
+        <v>97736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131913</v>
+        <v>131125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3881209321150257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3343910424928687</v>
+        <v>0.3327049986003395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4490482712697431</v>
+        <v>0.4463657416383508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -762,19 +762,19 @@
         <v>140630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123646</v>
+        <v>122761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159617</v>
+        <v>157625</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4871098501686584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4282814792928935</v>
+        <v>0.4252141049815791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.552874543132538</v>
+        <v>0.545976715699792</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -783,19 +783,19 @@
         <v>254645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229679</v>
+        <v>229933</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>278842</v>
+        <v>278691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4371855911513322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3943224488770983</v>
+        <v>0.3947596601307428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4787277399444465</v>
+        <v>0.4784694690399216</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>30992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20875</v>
+        <v>21400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42794</v>
+        <v>42564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1054998401572494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07106036257499772</v>
+        <v>0.07284785008748107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1456767038070165</v>
+        <v>0.1448920131359911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -833,19 +833,19 @@
         <v>23940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16119</v>
+        <v>16120</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35642</v>
+        <v>35392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08292097625218163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05583116075664118</v>
+        <v>0.05583723635855838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1234541209162847</v>
+        <v>0.1225901657279948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -854,19 +854,19 @@
         <v>54931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41936</v>
+        <v>41172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70282</v>
+        <v>70916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09430844337555015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0719968832305848</v>
+        <v>0.0706863421871473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1206630303482187</v>
+        <v>0.121752204386885</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>47116</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35272</v>
+        <v>35884</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61962</v>
+        <v>61888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1603872822050065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1200692125942331</v>
+        <v>0.1221525051855715</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2109261961120984</v>
+        <v>0.2106751093241751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -904,19 +904,19 @@
         <v>52558</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39161</v>
+        <v>40100</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67425</v>
+        <v>67496</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1820489922514173</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1356444016660059</v>
+        <v>0.1388969146487427</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2335432091216297</v>
+        <v>0.2337893156010585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -925,19 +925,19 @@
         <v>99674</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82731</v>
+        <v>81257</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121255</v>
+        <v>117430</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.171124084247783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1420358796471943</v>
+        <v>0.1395057949986219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2081764695350652</v>
+        <v>0.2016097259136255</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>54481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41457</v>
+        <v>41781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70131</v>
+        <v>69179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1854615143817835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1411265726386762</v>
+        <v>0.1422281437466069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2387334422966854</v>
+        <v>0.2354938164028904</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -975,19 +975,19 @@
         <v>31932</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22821</v>
+        <v>22446</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44819</v>
+        <v>44062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1106033025255139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0790468441185601</v>
+        <v>0.07774632333979802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.155243096951681</v>
+        <v>0.1526195457065959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -996,19 +996,19 @@
         <v>86413</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70136</v>
+        <v>69286</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106129</v>
+        <v>103787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.148357435329162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1204122445434165</v>
+        <v>0.1189535302355921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1822061835717815</v>
+        <v>0.1781866722948694</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>47158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34799</v>
+        <v>33939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61344</v>
+        <v>60831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1605304311409348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1184587896655663</v>
+        <v>0.1155332456177855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2088237013397542</v>
+        <v>0.2070750032949564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -1046,19 +1046,19 @@
         <v>39644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29299</v>
+        <v>28880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51347</v>
+        <v>52246</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1373168788022287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1014838739335189</v>
+        <v>0.100032755495493</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1778547242941325</v>
+        <v>0.1809692217185246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -1067,19 +1067,19 @@
         <v>86801</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68688</v>
+        <v>70701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106179</v>
+        <v>105069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1490244458961727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1179259444387368</v>
+        <v>0.121382393339755</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1822921980448527</v>
+        <v>0.1803879695199349</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>123634</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104715</v>
+        <v>103118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142761</v>
+        <v>144399</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2460009326858804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2083567708457414</v>
+        <v>0.2051802470028494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2840594310587449</v>
+        <v>0.2873186149631469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -1192,19 +1192,19 @@
         <v>157703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135409</v>
+        <v>136419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179683</v>
+        <v>181509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3029434790769365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2601181294346306</v>
+        <v>0.2620579270112081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3451676092936859</v>
+        <v>0.3486740089747186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -1213,19 +1213,19 @@
         <v>281337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251028</v>
+        <v>253779</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>311530</v>
+        <v>311452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2749728975121472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.245349156886362</v>
+        <v>0.2480388620366562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3044827824296898</v>
+        <v>0.3044064582683769</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>76281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60181</v>
+        <v>61553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95060</v>
+        <v>96172</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1517795445816504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1197460731479957</v>
+        <v>0.1224755758571627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1891456580796041</v>
+        <v>0.1913585246391414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -1263,19 +1263,19 @@
         <v>85315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68120</v>
+        <v>66907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103287</v>
+        <v>100860</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1638877889683339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1308576890963895</v>
+        <v>0.1285260923435278</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1984123831899745</v>
+        <v>0.1937498804046623</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>149</v>
@@ -1284,19 +1284,19 @@
         <v>161596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139556</v>
+        <v>138140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>187002</v>
+        <v>187041</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1579401336791189</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1363994285710154</v>
+        <v>0.1350154419219392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.182771979951863</v>
+        <v>0.1828097428258955</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>96592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79422</v>
+        <v>80609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115875</v>
+        <v>115438</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1921933384273011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1580294848220783</v>
+        <v>0.1603926668824814</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2305633234238255</v>
+        <v>0.2296925949780444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>89</v>
@@ -1334,19 +1334,19 @@
         <v>95005</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76843</v>
+        <v>77983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113004</v>
+        <v>112029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.182501896164789</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1476138566330849</v>
+        <v>0.1498042606004494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2170778115868201</v>
+        <v>0.2152043943805345</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -1355,19 +1355,19 @@
         <v>191596</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>169190</v>
+        <v>166372</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>219202</v>
+        <v>215831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1872624011555988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1653631757263226</v>
+        <v>0.1626086764207082</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2142439327381848</v>
+        <v>0.2109484546872028</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>124893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106868</v>
+        <v>104589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144503</v>
+        <v>144566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2485066252182942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2126415381443795</v>
+        <v>0.2081054659721139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2875258697725292</v>
+        <v>0.2876509181691148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1405,19 +1405,19 @@
         <v>121141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102431</v>
+        <v>101576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142223</v>
+        <v>140160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2327098109187498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1967669810754394</v>
+        <v>0.1951250206996475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.273206977723078</v>
+        <v>0.2692442912104753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>235</v>
@@ -1426,19 +1426,19 @@
         <v>246035</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>218407</v>
+        <v>221840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272537</v>
+        <v>273211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2404693178398986</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.213467018255046</v>
+        <v>0.2168215259827531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2663723584130795</v>
+        <v>0.2670311065434949</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>81176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66399</v>
+        <v>64799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99709</v>
+        <v>98837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.161519559086874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1321183405726789</v>
+        <v>0.1289332167412619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1983958283265229</v>
+        <v>0.1966620476134362</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -1476,19 +1476,19 @@
         <v>61405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48309</v>
+        <v>47437</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78306</v>
+        <v>77709</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1179570248711909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0928008737885241</v>
+        <v>0.09112565976862599</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1504244751851574</v>
+        <v>0.1492772196242559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1497,19 +1497,19 @@
         <v>142580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121659</v>
+        <v>122373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165754</v>
+        <v>167766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1393552498132365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1189065347222049</v>
+        <v>0.1196045638096484</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1620042299002014</v>
+        <v>0.1639707479806854</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>69488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55640</v>
+        <v>56322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84628</v>
+        <v>84861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2213301920019572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1772240396011381</v>
+        <v>0.179394222530287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2695533491106652</v>
+        <v>0.2702964847773536</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -1622,19 +1622,19 @@
         <v>109253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91345</v>
+        <v>92657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127654</v>
+        <v>127322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3248587962773369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2716093786142589</v>
+        <v>0.2755101589082242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.379572520611036</v>
+        <v>0.3785853799638317</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1643,19 +1643,19 @@
         <v>178741</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>156032</v>
+        <v>156210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200948</v>
+        <v>199348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2748739482408464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2399514362629926</v>
+        <v>0.2402255676518563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3090248164577</v>
+        <v>0.3065646329952333</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>80354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64449</v>
+        <v>66130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95042</v>
+        <v>95771</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.25594241027145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2052810666314923</v>
+        <v>0.2106361349656929</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3027244504684288</v>
+        <v>0.3050453844470097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -1693,19 +1693,19 @@
         <v>81894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66342</v>
+        <v>67478</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98850</v>
+        <v>100216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.243507834333212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1972661323440702</v>
+        <v>0.2006433197111063</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2939273600887967</v>
+        <v>0.2979873565863415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>159</v>
@@ -1714,19 +1714,19 @@
         <v>162248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140477</v>
+        <v>139027</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184319</v>
+        <v>183735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2495113962765158</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2160309664730486</v>
+        <v>0.2138012379446126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2834528192027392</v>
+        <v>0.2825537817930618</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>94688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79515</v>
+        <v>79763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112101</v>
+        <v>110489</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3015985052907567</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2532693858672014</v>
+        <v>0.2540577655005435</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3570620265590361</v>
+        <v>0.3519261994789338</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -1764,19 +1764,19 @@
         <v>83895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69101</v>
+        <v>68691</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100295</v>
+        <v>101306</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2494575666992185</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2054679913261278</v>
+        <v>0.204249738313461</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2982239900582409</v>
+        <v>0.3012275641257847</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>189</v>
@@ -1785,19 +1785,19 @@
         <v>178583</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>158240</v>
+        <v>156913</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201253</v>
+        <v>201099</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2746318353008268</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2433472250940762</v>
+        <v>0.2413059389495191</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3094936593174493</v>
+        <v>0.3092570839666377</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>56227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44162</v>
+        <v>44282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69948</v>
+        <v>70036</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1790917417676215</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1406630857049201</v>
+        <v>0.1410449461712684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2227959265308256</v>
+        <v>0.2230758807848287</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -1835,19 +1835,19 @@
         <v>55464</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43214</v>
+        <v>42348</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70356</v>
+        <v>67411</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1649205479738851</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1284955815643907</v>
+        <v>0.1259185599789364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2091996010521921</v>
+        <v>0.2004424832853519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -1856,19 +1856,19 @@
         <v>111691</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95745</v>
+        <v>95422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130912</v>
+        <v>132182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.171762569782577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1472408644772709</v>
+        <v>0.1467432964604103</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2013214545504765</v>
+        <v>0.2032746408401805</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>13198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7427</v>
+        <v>7466</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21430</v>
+        <v>21875</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04203715066821461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02365661706835542</v>
+        <v>0.02377910032268141</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06825707430845539</v>
+        <v>0.06967596292549072</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1906,19 +1906,19 @@
         <v>5803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12392</v>
+        <v>11630</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01725525471634732</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005925074507870304</v>
+        <v>0.005894924858948608</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03684732823564084</v>
+        <v>0.03458154933278217</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -1927,19 +1927,19 @@
         <v>19001</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12344</v>
+        <v>11727</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>28551</v>
+        <v>28257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02922025039923405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01898230203823215</v>
+        <v>0.01803482258003393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04390631569245141</v>
+        <v>0.04345435949573008</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>155108</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135086</v>
+        <v>135707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176075</v>
+        <v>175581</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4192519247000597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3651315386563865</v>
+        <v>0.3668118859869688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4759246467459508</v>
+        <v>0.4745897713144686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2052,19 +2052,19 @@
         <v>182544</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161563</v>
+        <v>161701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202164</v>
+        <v>201740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4754468976773513</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4208013713827986</v>
+        <v>0.4211601818978662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.52654851091041</v>
+        <v>0.5254455277010318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>312</v>
@@ -2073,19 +2073,19 @@
         <v>337652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>309625</v>
+        <v>310866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>367256</v>
+        <v>365129</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4478703364614187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4106947504652976</v>
+        <v>0.4123405072412695</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4871381211069272</v>
+        <v>0.4843164631871898</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>64824</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50028</v>
+        <v>50881</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81444</v>
+        <v>81078</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1752166935047811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1352232677382234</v>
+        <v>0.1375285590972457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2201391045842904</v>
+        <v>0.2191516378481827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>69</v>
@@ -2123,19 +2123,19 @@
         <v>75768</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>59116</v>
+        <v>61340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93127</v>
+        <v>92401</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1973435798167774</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1539704316504433</v>
+        <v>0.1597634960987131</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2425554414070545</v>
+        <v>0.2406635642641446</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -2144,19 +2144,19 @@
         <v>140592</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>119140</v>
+        <v>119585</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>163134</v>
+        <v>164181</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1864852520594649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1580300502267991</v>
+        <v>0.1586202158270033</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2163855493383995</v>
+        <v>0.2177746077949001</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>39042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28448</v>
+        <v>29014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51984</v>
+        <v>52612</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1055295395419047</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07689495393889602</v>
+        <v>0.07842496107095547</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1405119165487453</v>
+        <v>0.1422076335261143</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -2194,19 +2194,19 @@
         <v>42359</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31568</v>
+        <v>31215</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55474</v>
+        <v>55867</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1103275243101316</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08222163489442674</v>
+        <v>0.08130140808292308</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1444849522879824</v>
+        <v>0.1455085016381744</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -2215,19 +2215,19 @@
         <v>81401</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64284</v>
+        <v>65016</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>99868</v>
+        <v>99361</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1079730090632324</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08526765193692629</v>
+        <v>0.08623873656626038</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1324675298970729</v>
+        <v>0.1317950203066411</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>32494</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22610</v>
+        <v>23301</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44374</v>
+        <v>45579</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08782883560276147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06111305411197841</v>
+        <v>0.06298256110378331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.119942354287093</v>
+        <v>0.1231983203541614</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2265,19 +2265,19 @@
         <v>21778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14075</v>
+        <v>14223</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33110</v>
+        <v>33408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05672239791105343</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03665970400733751</v>
+        <v>0.03704436763832511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08623646780976021</v>
+        <v>0.08701451249056345</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -2286,19 +2286,19 @@
         <v>54272</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41825</v>
+        <v>40674</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70245</v>
+        <v>69379</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07198726125677693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05547751699481653</v>
+        <v>0.05395060273933291</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0931743816028329</v>
+        <v>0.092026757869186</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>78496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63275</v>
+        <v>63022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94926</v>
+        <v>95699</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.212173006650493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1710300046318554</v>
+        <v>0.1703461551597856</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2565817008156382</v>
+        <v>0.2586703822779098</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -2336,19 +2336,19 @@
         <v>61492</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48350</v>
+        <v>48767</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76511</v>
+        <v>76529</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1601596002846863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1259312713488877</v>
+        <v>0.1270157033223639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.199278341943859</v>
+        <v>0.1993242636793394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>136</v>
@@ -2357,19 +2357,19 @@
         <v>139988</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>121155</v>
+        <v>119093</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>163659</v>
+        <v>163102</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1856841411591071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1607036552702829</v>
+        <v>0.1579686328138978</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2170817421253437</v>
+        <v>0.2163429001884644</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>60297</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47220</v>
+        <v>48845</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>72506</v>
+        <v>74924</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2854682688070312</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2235595919533217</v>
+        <v>0.2312493784880276</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3432718735545554</v>
+        <v>0.3547198231176353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -2482,19 +2482,19 @@
         <v>76787</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>62882</v>
+        <v>63535</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>91253</v>
+        <v>91690</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3512857583755667</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2876755937805398</v>
+        <v>0.290662476693677</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4174690975004203</v>
+        <v>0.4194646341733034</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>139</v>
@@ -2503,19 +2503,19 @@
         <v>137083</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>118284</v>
+        <v>119379</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>154855</v>
+        <v>158797</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3189410000046846</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2752017067853221</v>
+        <v>0.277749728637509</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3602887113234005</v>
+        <v>0.3694608798247878</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>37657</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26704</v>
+        <v>26873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48790</v>
+        <v>49577</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1782825221658566</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1264270347602406</v>
+        <v>0.1272249008344702</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2309902425992163</v>
+        <v>0.2347172436101062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -2553,19 +2553,19 @@
         <v>53612</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42196</v>
+        <v>42107</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68286</v>
+        <v>67126</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2452660510938053</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1930421234648476</v>
+        <v>0.1926322172500698</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3123978322121498</v>
+        <v>0.3070908914526331</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>91</v>
@@ -2574,19 +2574,19 @@
         <v>91269</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>75743</v>
+        <v>75779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>109651</v>
+        <v>109781</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2123482647697393</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1762258548263844</v>
+        <v>0.1763088790460129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2551159395843908</v>
+        <v>0.2554181552584661</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>31385</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22093</v>
+        <v>23262</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41978</v>
+        <v>42815</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1485862746501093</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1045954643700543</v>
+        <v>0.1101324232858252</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1987392414233136</v>
+        <v>0.2027016073802704</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>29</v>
@@ -2624,19 +2624,19 @@
         <v>26995</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18783</v>
+        <v>19506</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37647</v>
+        <v>37609</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.123497159541667</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08592847960779634</v>
+        <v>0.08923880260678607</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1722295073052495</v>
+        <v>0.1720562745385679</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>62</v>
@@ -2645,19 +2645,19 @@
         <v>58379</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45962</v>
+        <v>45940</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72989</v>
+        <v>71933</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1358267298616775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1069369901539339</v>
+        <v>0.1068853552449865</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1698187476511328</v>
+        <v>0.1673603593984142</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>42290</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31579</v>
+        <v>31634</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54029</v>
+        <v>54949</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2002177273984696</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1495055459675913</v>
+        <v>0.1497685967575705</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2557940877171129</v>
+        <v>0.2601508232718316</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -2695,19 +2695,19 @@
         <v>30978</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22962</v>
+        <v>22367</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42458</v>
+        <v>41529</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1417197593949792</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1050462986326766</v>
+        <v>0.1023249879212548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1942383961434155</v>
+        <v>0.1899887355433156</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>74</v>
@@ -2716,19 +2716,19 @@
         <v>73268</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>60313</v>
+        <v>59480</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>91654</v>
+        <v>89255</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1704674775571897</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1403250342358046</v>
+        <v>0.1383863120858139</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2132432107355693</v>
+        <v>0.2076614132070702</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>39592</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29057</v>
+        <v>29348</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52769</v>
+        <v>51964</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1874452069785333</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.137567960147243</v>
+        <v>0.1389435911855895</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2498271815671151</v>
+        <v>0.2460160360913796</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -2766,19 +2766,19 @@
         <v>30216</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21065</v>
+        <v>21690</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41622</v>
+        <v>41315</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1382312715939819</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09637001090674124</v>
+        <v>0.09922715817598719</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1904132480654729</v>
+        <v>0.1890079867752462</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -2787,19 +2787,19 @@
         <v>69808</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55667</v>
+        <v>55177</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>85575</v>
+        <v>85788</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1624165278067089</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1295168296228351</v>
+        <v>0.1283759573884802</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1991002588787651</v>
+        <v>0.199595595302475</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>124868</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>108798</v>
+        <v>109688</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>141084</v>
+        <v>140875</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4745614971605137</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4134870775659858</v>
+        <v>0.4168684235221711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5361915882134975</v>
+        <v>0.5353971291742878</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>125</v>
@@ -2912,19 +2912,19 @@
         <v>133688</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>117106</v>
+        <v>117941</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>150002</v>
+        <v>152202</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4894927835860637</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4287793335883034</v>
+        <v>0.431836140801101</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5492279115035137</v>
+        <v>0.5572807695640007</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>249</v>
@@ -2933,19 +2933,19 @@
         <v>258556</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>234820</v>
+        <v>234194</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>283125</v>
+        <v>280447</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4821662515821196</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4379028020275987</v>
+        <v>0.4367359048720065</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5279840650717736</v>
+        <v>0.5229891819008624</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>40730</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28578</v>
+        <v>31098</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52830</v>
+        <v>54922</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1547956789264507</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1086103363150171</v>
+        <v>0.1181889590598629</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.200782473121916</v>
+        <v>0.2087311177792055</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>44</v>
@@ -2983,19 +2983,19 @@
         <v>45175</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>33170</v>
+        <v>34347</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>59284</v>
+        <v>59205</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1654066320316623</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1214512874414601</v>
+        <v>0.125758628536641</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2170659512365058</v>
+        <v>0.2167769723333277</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>84</v>
@@ -3004,19 +3004,19 @@
         <v>85905</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>68247</v>
+        <v>69334</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>102564</v>
+        <v>104501</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1602000151801729</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1272704859301502</v>
+        <v>0.1292968811228977</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1912663563215793</v>
+        <v>0.19487719209554</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>29524</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20079</v>
+        <v>19674</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41552</v>
+        <v>40907</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1122069699979096</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07631207671213371</v>
+        <v>0.07477088124314986</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1579188332360906</v>
+        <v>0.1554690775181304</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>43</v>
@@ -3054,19 +3054,19 @@
         <v>44051</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32751</v>
+        <v>33195</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>58157</v>
+        <v>56999</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1612915589466869</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1199148836926112</v>
+        <v>0.1215407925614497</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2129398883101992</v>
+        <v>0.2086987299165198</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>70</v>
@@ -3075,19 +3075,19 @@
         <v>73575</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>58877</v>
+        <v>57999</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>91417</v>
+        <v>90062</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1372065737964263</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1097970553671621</v>
+        <v>0.1081582302393476</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1704792036089178</v>
+        <v>0.1679513179771494</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>33152</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22351</v>
+        <v>23686</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44047</v>
+        <v>45030</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1259928462879924</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08494421976112068</v>
+        <v>0.09001794897486724</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1673996820902719</v>
+        <v>0.1711355515457393</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -3125,19 +3125,19 @@
         <v>26191</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18604</v>
+        <v>17856</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37918</v>
+        <v>38033</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09589654906003521</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06811671262428812</v>
+        <v>0.06537830906973735</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1388341417161791</v>
+        <v>0.1392568229457389</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -3146,19 +3146,19 @@
         <v>59342</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45603</v>
+        <v>46096</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>75180</v>
+        <v>75115</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1106642977024782</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08504320665116091</v>
+        <v>0.08596163889142866</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1401985706663911</v>
+        <v>0.1400785443961165</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>34849</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>24645</v>
+        <v>24701</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>47034</v>
+        <v>45539</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1324430076271336</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09366516047184081</v>
+        <v>0.09387506858694041</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1787510502881468</v>
+        <v>0.1730699055799339</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>25</v>
@@ -3196,19 +3196,19 @@
         <v>24010</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16307</v>
+        <v>15656</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>34312</v>
+        <v>33945</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08791247637555179</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05970561860314862</v>
+        <v>0.05732401836581049</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1256329181792958</v>
+        <v>0.1242869858672905</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>60</v>
@@ -3217,19 +3217,19 @@
         <v>58859</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>44816</v>
+        <v>45903</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>73675</v>
+        <v>73531</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.109762861738803</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08357533755835692</v>
+        <v>0.08560212707701083</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1373916706955138</v>
+        <v>0.1371235563130024</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>224167</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>198135</v>
+        <v>200485</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>250738</v>
+        <v>253386</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3487168977715359</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.308220386784484</v>
+        <v>0.3118756737151114</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3900504102946268</v>
+        <v>0.394168861280965</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>240</v>
@@ -3342,19 +3342,19 @@
         <v>267933</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>241516</v>
+        <v>242648</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>291987</v>
+        <v>293392</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.396436650151241</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3573502108949376</v>
+        <v>0.359025551363659</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4320276504649434</v>
+        <v>0.434106650066106</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>440</v>
@@ -3363,19 +3363,19 @@
         <v>492100</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>456295</v>
+        <v>455547</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>530995</v>
+        <v>527387</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.373174196271677</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3460219355240797</v>
+        <v>0.3454548257396689</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4026694520627184</v>
+        <v>0.3999328422542947</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>112828</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>94155</v>
+        <v>94369</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>134414</v>
+        <v>136691</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1755163977474609</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1464678647481544</v>
+        <v>0.1468015656598778</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2090955007025657</v>
+        <v>0.21263718260572</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>120</v>
@@ -3413,19 +3413,19 @@
         <v>127991</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>106468</v>
+        <v>108284</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>148182</v>
+        <v>152082</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1893773441077592</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1575316156358594</v>
+        <v>0.1602175928147455</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2192523568886983</v>
+        <v>0.225021585812411</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>217</v>
@@ -3434,19 +3434,19 @@
         <v>240819</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>213005</v>
+        <v>213886</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>274535</v>
+        <v>271979</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.182620401555587</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.161528278750858</v>
+        <v>0.1621961305008526</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2081880112049819</v>
+        <v>0.2062496295496064</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>123079</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>104817</v>
+        <v>102486</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>144851</v>
+        <v>143745</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1914626574778138</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1630535130689114</v>
+        <v>0.1594279073085114</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2253311618659465</v>
+        <v>0.2236108415337829</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>84</v>
@@ -3484,19 +3484,19 @@
         <v>86420</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>69347</v>
+        <v>69965</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>106822</v>
+        <v>104768</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1278679433223796</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1026069893344554</v>
+        <v>0.1035211022518199</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1580546946284286</v>
+        <v>0.155016200705438</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>192</v>
@@ -3505,19 +3505,19 @@
         <v>209499</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>182359</v>
+        <v>183497</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>240247</v>
+        <v>237524</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.158869133212334</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1382885083961124</v>
+        <v>0.1391508502576186</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1821862920203472</v>
+        <v>0.1801215047794557</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>89361</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>73229</v>
+        <v>72033</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>107934</v>
+        <v>109630</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1390113291394611</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1139149275130107</v>
+        <v>0.112054436995727</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1679037547992692</v>
+        <v>0.1705411744647806</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>68</v>
@@ -3555,19 +3555,19 @@
         <v>71003</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>57035</v>
+        <v>55350</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>89857</v>
+        <v>87937</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1050574337862149</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08439010206574679</v>
+        <v>0.08189608886153431</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1329536285360232</v>
+        <v>0.1301126025823313</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>147</v>
@@ -3576,19 +3576,19 @@
         <v>160365</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>138232</v>
+        <v>136391</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>185652</v>
+        <v>186606</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.121609299319833</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.104825670950229</v>
+        <v>0.1034296068769001</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1407851643688445</v>
+        <v>0.1415088620505456</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>93399</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>76876</v>
+        <v>75837</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>113263</v>
+        <v>111501</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1452927178637283</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1195884948896429</v>
+        <v>0.1179727618719991</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1761922010809841</v>
+        <v>0.1734526793767776</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>121</v>
@@ -3626,19 +3626,19 @@
         <v>122506</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>105511</v>
+        <v>104093</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>145724</v>
+        <v>142033</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1812606286324054</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1561151267913923</v>
+        <v>0.1540165234284024</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2156146040947134</v>
+        <v>0.2101536325212499</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>205</v>
@@ -3647,19 +3647,19 @@
         <v>215905</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>186254</v>
+        <v>189346</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>241390</v>
+        <v>244504</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.163726969640569</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1412420963427919</v>
+        <v>0.1435867137216274</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1830528877804972</v>
+        <v>0.1854144848145379</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>195794</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>169170</v>
+        <v>170509</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>219092</v>
+        <v>221204</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2530712798803913</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2186586413257468</v>
+        <v>0.2203890094574129</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2831854018668319</v>
+        <v>0.2859153412248873</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>197</v>
@@ -3772,19 +3772,19 @@
         <v>232267</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>204789</v>
+        <v>207114</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>259623</v>
+        <v>263111</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2814710029160977</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2481719674057513</v>
+        <v>0.2509887123024088</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3146215159777706</v>
+        <v>0.3188485837734003</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>385</v>
@@ -3793,19 +3793,19 @@
         <v>428061</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>392305</v>
+        <v>393787</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>466485</v>
+        <v>467642</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2677286982069402</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2453652323112831</v>
+        <v>0.2462919734486588</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.291760335171393</v>
+        <v>0.2924844365836206</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>90077</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>72703</v>
+        <v>74471</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>107027</v>
+        <v>107526</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1164277681489726</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09397180350717962</v>
+        <v>0.09625607082762506</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1383365461092517</v>
+        <v>0.1389811086038467</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -3843,19 +3843,19 @@
         <v>94470</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>76444</v>
+        <v>75927</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>114350</v>
+        <v>116604</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1144821286146658</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09263743616856757</v>
+        <v>0.09201082023799825</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.138574271077722</v>
+        <v>0.1413056207027594</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>174</v>
@@ -3864,19 +3864,19 @@
         <v>184546</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>160216</v>
+        <v>158402</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>212561</v>
+        <v>213142</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1154236015755469</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1002063517171021</v>
+        <v>0.09907144580036148</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1329453865618361</v>
+        <v>0.133308567132437</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>156348</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>133721</v>
+        <v>133282</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>180769</v>
+        <v>179379</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2020858964314636</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1728393450688566</v>
+        <v>0.1722724853510837</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2336510618054385</v>
+        <v>0.2318540686945688</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>157</v>
@@ -3914,19 +3914,19 @@
         <v>171929</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>150305</v>
+        <v>149854</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>197567</v>
+        <v>195615</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2083506775978136</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1821456345513174</v>
+        <v>0.1815987348716832</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.239420220656253</v>
+        <v>0.2370544048819322</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>306</v>
@@ -3935,19 +3935,19 @@
         <v>328277</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>297701</v>
+        <v>297453</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>365267</v>
+        <v>361668</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2053192208608613</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1861952695774332</v>
+        <v>0.1860406744412056</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2284545082516453</v>
+        <v>0.2262032018895009</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>193020</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>170859</v>
+        <v>171244</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>218374</v>
+        <v>217842</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.249486510897497</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2208422509635589</v>
+        <v>0.2213395292281489</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2822570369067958</v>
+        <v>0.2815696381907595</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>195</v>
@@ -3985,19 +3985,19 @@
         <v>204210</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>179959</v>
+        <v>181283</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>228385</v>
+        <v>230935</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2474698163917605</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2180820660874432</v>
+        <v>0.2196859853710909</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.276765728514391</v>
+        <v>0.2798565546336388</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>382</v>
@@ -4006,19 +4006,19 @@
         <v>397230</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>360187</v>
+        <v>363815</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>429700</v>
+        <v>433328</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2484456720495171</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2252772917524488</v>
+        <v>0.2275460532094995</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2687536140052258</v>
+        <v>0.2710224879331103</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>138432</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>118212</v>
+        <v>114535</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>163080</v>
+        <v>159157</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1789285446416754</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1527932670101311</v>
+        <v>0.1480410817396587</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2107868805556688</v>
+        <v>0.2057167357014527</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>119</v>
@@ -4056,19 +4056,19 @@
         <v>122315</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>101846</v>
+        <v>101611</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>144738</v>
+        <v>144094</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1482263744796623</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1234212489897828</v>
+        <v>0.1231363227995963</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1753993491912861</v>
+        <v>0.1746191520447891</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>252</v>
@@ -4077,19 +4077,19 @@
         <v>260747</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>232742</v>
+        <v>229489</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>291620</v>
+        <v>289285</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1630828073071345</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1455675825665619</v>
+        <v>0.1435327715436863</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1823919674493112</v>
+        <v>0.1809316240842554</v>
       </c>
     </row>
     <row r="51">
@@ -4181,19 +4181,19 @@
         <v>1067371</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1014639</v>
+        <v>1015254</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1120498</v>
+        <v>1127028</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3166234056993657</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.300980988744469</v>
+        <v>0.3011635735429037</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3323829057078508</v>
+        <v>0.3343200789127577</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1176</v>
@@ -4202,19 +4202,19 @@
         <v>1300804</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1241848</v>
+        <v>1243252</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1358955</v>
+        <v>1362902</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3693087066549181</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3525707991306044</v>
+        <v>0.3529693164260219</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.385818152897664</v>
+        <v>0.3869389920170206</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2197</v>
@@ -4223,19 +4223,19 @@
         <v>2368175</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2289623</v>
+        <v>2286837</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2455233</v>
+        <v>2443740</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3435437120755629</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3321483711593017</v>
+        <v>0.3317442034444189</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3561729672070295</v>
+        <v>0.3545057056235495</v>
       </c>
     </row>
     <row r="53">
@@ -4252,19 +4252,19 @@
         <v>533743</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>495326</v>
+        <v>493556</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>574762</v>
+        <v>581564</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1583287479437607</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1469326852386943</v>
+        <v>0.146407642411109</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1704965406812992</v>
+        <v>0.1725141746279343</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>554</v>
@@ -4273,19 +4273,19 @@
         <v>588164</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>545736</v>
+        <v>547484</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>640131</v>
+        <v>638631</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1669845999803409</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.154938708952922</v>
+        <v>0.1554350832958709</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1817382668070412</v>
+        <v>0.1813124280307011</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1055</v>
@@ -4294,19 +4294,19 @@
         <v>1121907</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1056776</v>
+        <v>1067564</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1186195</v>
+        <v>1194498</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1627515790663988</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1533031577869003</v>
+        <v>0.1548681408448732</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1720775825980445</v>
+        <v>0.1732820160552842</v>
       </c>
     </row>
     <row r="54">
@@ -4323,19 +4323,19 @@
         <v>617773</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>573383</v>
+        <v>577662</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>660611</v>
+        <v>666376</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1832554352202776</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1700873986129453</v>
+        <v>0.1713568519755262</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1959625510368303</v>
+        <v>0.1976728355303498</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>580</v>
@@ -4344,19 +4344,19 @@
         <v>603212</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>559962</v>
+        <v>556419</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>645714</v>
+        <v>645159</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.171256703468032</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1589776463831053</v>
+        <v>0.1579719658905775</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1833234248327662</v>
+        <v>0.1831658569590753</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1171</v>
@@ -4365,19 +4365,19 @@
         <v>1220985</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1154446</v>
+        <v>1161532</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1289668</v>
+        <v>1287071</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1771245120018877</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1674718602576235</v>
+        <v>0.1684997551988295</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1870880357847648</v>
+        <v>0.1867114062696578</v>
       </c>
     </row>
     <row r="55">
@@ -4394,19 +4394,19 @@
         <v>625919</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>582763</v>
+        <v>584311</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>679048</v>
+        <v>673039</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1856716109089429</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1728699581246752</v>
+        <v>0.173329281279963</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2014316747765107</v>
+        <v>0.199649250667446</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>550</v>
@@ -4415,19 +4415,19 @@
         <v>562697</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>518685</v>
+        <v>517647</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>605212</v>
+        <v>607917</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1597542636361265</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1472589447321247</v>
+        <v>0.146964080920313</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1718245210773937</v>
+        <v>0.1725926545612579</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1149</v>
@@ -4436,19 +4436,19 @@
         <v>1188616</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1124669</v>
+        <v>1129210</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1252264</v>
+        <v>1251000</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1724287724627674</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1631522190040338</v>
+        <v>0.1638109032317097</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1816620221109854</v>
+        <v>0.181478576005537</v>
       </c>
     </row>
     <row r="56">
@@ -4465,19 +4465,19 @@
         <v>526300</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1561208002276531</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>460</v>
@@ -4486,19 +4486,19 @@
         <v>467390</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1326957262605824</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>957</v>
@@ -4507,19 +4507,19 @@
         <v>993690</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1441514243933832</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
     </row>
     <row r="57">
